--- a/results.xlsx
+++ b/results.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanielsprecher/Documents/REU_GNN/GraphSAGE_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F65F43-5CF7-4D4D-96F8-AC8B86D4ED66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C95670-CEE2-6344-853D-FE7E61B599E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="27640" windowHeight="15580" activeTab="2" xr2:uid="{126C32C7-39E5-4748-8F2C-16AAB677E73B}"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="27640" windowHeight="15580" activeTab="3" xr2:uid="{126C32C7-39E5-4748-8F2C-16AAB677E73B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ind_10n_4a" sheetId="3" r:id="rId1"/>
     <sheet name="Ind_10n_2a" sheetId="4" r:id="rId2"/>
     <sheet name="Isolated_nodes" sheetId="5" r:id="rId3"/>
+    <sheet name="n2v_10n_4a" sheetId="6" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="23">
   <si>
     <t>avg</t>
   </si>
@@ -96,6 +94,15 @@
   </si>
   <si>
     <t>10n_2a</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>T_Time</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -204,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -869,12 +876,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -969,6 +1043,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1564,6 +1671,1942 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1356029424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cora</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>: 10% node, 4% attribute. Random Induction</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$C$15:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.10344827586200001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6388888888899997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4240837696299998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7464788732399995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAA0-6A4E-B5F6-FB80D68AA2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2592592592599998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3333333333299999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12587412587399999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.149659863946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DAA0-6A4E-B5F6-FB80D68AA2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.7719869706799994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4829931972799996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.107784431138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.102088167053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DAA0-6A4E-B5F6-FB80D68AA2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$F$15:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.943248033524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.221429824829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.82129955292E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2503862381E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DAA0-6A4E-B5F6-FB80D68AA2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1724628640"/>
+        <c:axId val="1727815264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1724628640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Set (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1727815264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1727815264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724628640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Citeseer: 10% node,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 4% attribute. Random Induction</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$H$15:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$I$15:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.135294117647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.109489051095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.64197530864E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.74712643678E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97AE-FA4D-8D25-8508C43CCFC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$H$15:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$J$15:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.133720930233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.102739726027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15671641790999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8965517241400001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97AE-FA4D-8D25-8508C43CCFC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$H$15:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$K$15:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13450292397700001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.106007067138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11140583554400001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2695924764900005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97AE-FA4D-8D25-8508C43CCFC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$H$15:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$L$15:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5168888568900001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.442583084106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10040092468300001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.46188640594E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-97AE-FA4D-8D25-8508C43CCFC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1882055376"/>
+        <c:axId val="1381535392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1882055376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Set (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381535392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1381535392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882055376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Citeseer: 10% node, 4% attribute.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> BFS Induction</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.135294117647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9470198675499995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.109090909091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.116788321168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4238-E24F-9858-1F966B272E66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$J$5:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.133720930233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9470198675499995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16551724137900001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.105263157895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4238-E24F-9858-1F966B272E66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$K$5:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13450292397700001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9470198675499995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13150684931500001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.110726643599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4238-E24F-9858-1F966B272E66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$L$5:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5168888568900001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34145188331600002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17885899543799999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9460916519200001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4238-E24F-9858-1F966B272E66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="849325264"/>
+        <c:axId val="852559264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="849325264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852559264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="852559264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="849325264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6234,7 +8277,789 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cora: 10% node,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 4% attribute. BFS Induction</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.10344827586200001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105590062112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13709677419399999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5889570552100003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECB9-1042-A322-FFE4435CE5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2592592592599998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.113333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.107594936709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3959731543600003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ECB9-1042-A322-FFE4435CE5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.7719869706799994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10932475884200001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12056737588700001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.97435897436E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ECB9-1042-A322-FFE4435CE5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n2v_10n_4a!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>n2v_10n_4a!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.943248033524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.202105998993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7212839126600001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7829360961900003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ECB9-1042-A322-FFE4435CE5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1356029424"/>
+        <c:axId val="1356031056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1356029424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Set (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1356031056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1356031056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1356029424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6554,6 +9379,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7070,7 +9935,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7586,7 +10451,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8102,7 +10967,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8618,7 +11483,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9134,7 +11999,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9650,7 +12515,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10166,7 +13031,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10994,775 +15923,161 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cora"/>
-      <sheetName val="Citeseer"/>
-      <sheetName val="Toy-PPI"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Ind_10n_4a"/>
-      <sheetName val="Ind_10n_2a"/>
-      <sheetName val="Isolated_nodes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Loss</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Precision</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Recall</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>F1</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>Loss</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>Precision</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>Recall</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>F1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5">
-            <v>6.5799999999999999E-3</v>
-          </cell>
-          <cell r="D5">
-            <v>0.98</v>
-          </cell>
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>0.9899</v>
-          </cell>
-          <cell r="H5">
-            <v>1</v>
-          </cell>
-          <cell r="I5">
-            <v>1.204E-2</v>
-          </cell>
-          <cell r="J5">
-            <v>0.98</v>
-          </cell>
-          <cell r="K5">
-            <v>1</v>
-          </cell>
-          <cell r="L5">
-            <v>0.9899</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.5</v>
-          </cell>
-          <cell r="C6">
-            <v>4.99E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>0.92583000000000004</v>
-          </cell>
-          <cell r="E6">
-            <v>0.96667000000000003</v>
-          </cell>
-          <cell r="F6">
-            <v>0.94494</v>
-          </cell>
-          <cell r="H6">
-            <v>0.5</v>
-          </cell>
-          <cell r="I6">
-            <v>1.39E-3</v>
-          </cell>
-          <cell r="J6">
-            <v>1</v>
-          </cell>
-          <cell r="K6">
-            <v>1</v>
-          </cell>
-          <cell r="L6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.25</v>
-          </cell>
-          <cell r="C7">
-            <v>0.14735999999999999</v>
-          </cell>
-          <cell r="D7">
-            <v>0.88485000000000003</v>
-          </cell>
-          <cell r="E7">
-            <v>0.38667000000000001</v>
-          </cell>
-          <cell r="F7">
-            <v>0.47733999999999999</v>
-          </cell>
-          <cell r="H7">
-            <v>0.25</v>
-          </cell>
-          <cell r="I7">
-            <v>1.0840000000000001E-2</v>
-          </cell>
-          <cell r="J7">
-            <v>1</v>
-          </cell>
-          <cell r="K7">
-            <v>1</v>
-          </cell>
-          <cell r="L7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.1</v>
-          </cell>
-          <cell r="C8">
-            <v>6.7860000000000004E-2</v>
-          </cell>
-          <cell r="D8">
-            <v>0.33333000000000002</v>
-          </cell>
-          <cell r="E8">
-            <v>2.6669999999999999E-2</v>
-          </cell>
-          <cell r="F8">
-            <v>4.938E-2</v>
-          </cell>
-          <cell r="H8">
-            <v>0.1</v>
-          </cell>
-          <cell r="I8">
-            <v>9.801E-2</v>
-          </cell>
-          <cell r="J8">
-            <v>0.90476000000000001</v>
-          </cell>
-          <cell r="K8">
-            <v>0.73333000000000004</v>
-          </cell>
-          <cell r="L8">
-            <v>0.75144999999999995</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.05</v>
-          </cell>
-          <cell r="C9">
-            <v>0.22664999999999999</v>
-          </cell>
-          <cell r="D9">
-            <v>3.2939999999999997E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>0.11333</v>
-          </cell>
-          <cell r="F9">
-            <v>5.1049999999999998E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>0.05</v>
-          </cell>
-          <cell r="I9">
-            <v>0.1555</v>
-          </cell>
-          <cell r="J9">
-            <v>0.83287</v>
-          </cell>
-          <cell r="K9">
-            <v>0.92666999999999999</v>
-          </cell>
-          <cell r="L9">
-            <v>0.85287000000000002</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>Loss</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>Precision</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>Recall</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>F1</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>Loss</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v>Precision</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>Recall</v>
-          </cell>
-          <cell r="L14" t="str">
-            <v>F1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>1</v>
-          </cell>
-          <cell r="C15">
-            <v>6.5799999999999999E-3</v>
-          </cell>
-          <cell r="D15">
-            <v>0.98</v>
-          </cell>
-          <cell r="E15">
-            <v>1</v>
-          </cell>
-          <cell r="F15">
-            <v>0.9899</v>
-          </cell>
-          <cell r="H15">
-            <v>1</v>
-          </cell>
-          <cell r="I15">
-            <v>1.204E-2</v>
-          </cell>
-          <cell r="J15">
-            <v>0.98</v>
-          </cell>
-          <cell r="K15">
-            <v>1</v>
-          </cell>
-          <cell r="L15">
-            <v>0.9899</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0.5</v>
-          </cell>
-          <cell r="C16">
-            <v>3.9370000000000002E-2</v>
-          </cell>
-          <cell r="D16">
-            <v>0.92601</v>
-          </cell>
-          <cell r="E16">
-            <v>0.99333000000000005</v>
-          </cell>
-          <cell r="F16">
-            <v>0.95835999999999999</v>
-          </cell>
-          <cell r="H16">
-            <v>0.5</v>
-          </cell>
-          <cell r="I16">
-            <v>1.6000000000000001E-3</v>
-          </cell>
-          <cell r="J16">
-            <v>1</v>
-          </cell>
-          <cell r="K16">
-            <v>1</v>
-          </cell>
-          <cell r="L16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.25</v>
-          </cell>
-          <cell r="C17">
-            <v>9.536E-2</v>
-          </cell>
-          <cell r="D17">
-            <v>0.55630000000000002</v>
-          </cell>
-          <cell r="E17">
-            <v>0.26667000000000002</v>
-          </cell>
-          <cell r="F17">
-            <v>0.32950000000000002</v>
-          </cell>
-          <cell r="H17">
-            <v>0.25</v>
-          </cell>
-          <cell r="I17">
-            <v>1.072E-2</v>
-          </cell>
-          <cell r="J17">
-            <v>1</v>
-          </cell>
-          <cell r="K17">
-            <v>1</v>
-          </cell>
-          <cell r="L17">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0.1</v>
-          </cell>
-          <cell r="C18">
-            <v>6.7150000000000001E-2</v>
-          </cell>
-          <cell r="D18">
-            <v>0.33333000000000002</v>
-          </cell>
-          <cell r="E18">
-            <v>6.6699999999999997E-3</v>
-          </cell>
-          <cell r="F18">
-            <v>1.307E-2</v>
-          </cell>
-          <cell r="H18">
-            <v>0.1</v>
-          </cell>
-          <cell r="I18">
-            <v>0.13961000000000001</v>
-          </cell>
-          <cell r="J18">
-            <v>0.59787999999999997</v>
-          </cell>
-          <cell r="K18">
-            <v>0.45333000000000001</v>
-          </cell>
-          <cell r="L18">
-            <v>0.47144999999999998</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.05</v>
-          </cell>
-          <cell r="C19">
-            <v>0.22886999999999999</v>
-          </cell>
-          <cell r="D19">
-            <v>3.092E-2</v>
-          </cell>
-          <cell r="E19">
-            <v>0.12</v>
-          </cell>
-          <cell r="F19">
-            <v>4.9180000000000001E-2</v>
-          </cell>
-          <cell r="H19">
-            <v>0.05</v>
-          </cell>
-          <cell r="I19">
-            <v>0.33532000000000001</v>
-          </cell>
-          <cell r="J19">
-            <v>0</v>
-          </cell>
-          <cell r="K19">
-            <v>0</v>
-          </cell>
-          <cell r="L19">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Loss</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Precision</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Recall</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>F1</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>Loss</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>Precision</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>Recall</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>F1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="B3">
-            <v>8.3140000000000006E-2</v>
-          </cell>
-          <cell r="C3">
-            <v>0.73133999999999999</v>
-          </cell>
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-          <cell r="E3">
-            <v>0.84482999999999997</v>
-          </cell>
-          <cell r="G3">
-            <v>1</v>
-          </cell>
-          <cell r="H3">
-            <v>5.7750000000000003E-2</v>
-          </cell>
-          <cell r="I3">
-            <v>0.83050999999999997</v>
-          </cell>
-          <cell r="J3">
-            <v>1</v>
-          </cell>
-          <cell r="K3">
-            <v>0.90741000000000005</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>0.5</v>
-          </cell>
-          <cell r="B4">
-            <v>1.4710000000000001E-2</v>
-          </cell>
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-          <cell r="D4">
-            <v>0.98667000000000005</v>
-          </cell>
-          <cell r="E4">
-            <v>0.99319000000000002</v>
-          </cell>
-          <cell r="G4">
-            <v>0.5</v>
-          </cell>
-          <cell r="H4">
-            <v>1.8400000000000001E-3</v>
-          </cell>
-          <cell r="I4">
-            <v>1</v>
-          </cell>
-          <cell r="J4">
-            <v>1</v>
-          </cell>
-          <cell r="K4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>0.25</v>
-          </cell>
-          <cell r="B5">
-            <v>9.0149999999999994E-2</v>
-          </cell>
-          <cell r="C5">
-            <v>0.99319000000000002</v>
-          </cell>
-          <cell r="D5">
-            <v>0.75333000000000006</v>
-          </cell>
-          <cell r="E5">
-            <v>0.83247000000000004</v>
-          </cell>
-          <cell r="G5">
-            <v>0.25</v>
-          </cell>
-          <cell r="H5">
-            <v>1.461E-2</v>
-          </cell>
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-          <cell r="J5">
-            <v>0.99333000000000005</v>
-          </cell>
-          <cell r="K5">
-            <v>0.99663000000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>0.1</v>
-          </cell>
-          <cell r="B6">
-            <v>6.8839999999999998E-2</v>
-          </cell>
-          <cell r="C6">
-            <v>0.92412000000000005</v>
-          </cell>
-          <cell r="D6">
-            <v>0.94667000000000001</v>
-          </cell>
-          <cell r="E6">
-            <v>0.93056000000000005</v>
-          </cell>
-          <cell r="G6">
-            <v>0.1</v>
-          </cell>
-          <cell r="H6">
-            <v>9.6729999999999997E-2</v>
-          </cell>
-          <cell r="I6">
-            <v>0.98717999999999995</v>
-          </cell>
-          <cell r="J6">
-            <v>0.85333000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>0.90493000000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>0.05</v>
-          </cell>
-          <cell r="B7">
-            <v>0.39018999999999998</v>
-          </cell>
-          <cell r="C7">
-            <v>0.39230999999999999</v>
-          </cell>
-          <cell r="D7">
-            <v>0.46</v>
-          </cell>
-          <cell r="E7">
-            <v>0.30897000000000002</v>
-          </cell>
-          <cell r="G7">
-            <v>0.05</v>
-          </cell>
-          <cell r="H7">
-            <v>0.33889999999999998</v>
-          </cell>
-          <cell r="I7">
-            <v>0</v>
-          </cell>
-          <cell r="J7">
-            <v>0</v>
-          </cell>
-          <cell r="K7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Loss</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Precision</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>Recall</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>F1</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>Loss</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>Precision</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>Recall</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>F1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1</v>
-          </cell>
-          <cell r="B13">
-            <v>8.3140000000000006E-2</v>
-          </cell>
-          <cell r="C13">
-            <v>0.73133999999999999</v>
-          </cell>
-          <cell r="D13">
-            <v>1</v>
-          </cell>
-          <cell r="E13">
-            <v>0.84482999999999997</v>
-          </cell>
-          <cell r="G13">
-            <v>1</v>
-          </cell>
-          <cell r="H13">
-            <v>5.7750000000000003E-2</v>
-          </cell>
-          <cell r="I13">
-            <v>0.83050999999999997</v>
-          </cell>
-          <cell r="J13">
-            <v>1</v>
-          </cell>
-          <cell r="K13">
-            <v>0.90741000000000005</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>0.5</v>
-          </cell>
-          <cell r="B14">
-            <v>1.273E-2</v>
-          </cell>
-          <cell r="C14">
-            <v>1</v>
-          </cell>
-          <cell r="D14">
-            <v>1</v>
-          </cell>
-          <cell r="E14">
-            <v>1</v>
-          </cell>
-          <cell r="G14">
-            <v>0.5</v>
-          </cell>
-          <cell r="H14">
-            <v>1.6199999999999999E-3</v>
-          </cell>
-          <cell r="I14">
-            <v>1</v>
-          </cell>
-          <cell r="J14">
-            <v>1</v>
-          </cell>
-          <cell r="K14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>0.25</v>
-          </cell>
-          <cell r="B15">
-            <v>8.4070000000000006E-2</v>
-          </cell>
-          <cell r="C15">
-            <v>1</v>
-          </cell>
-          <cell r="D15">
-            <v>0.89332999999999996</v>
-          </cell>
-          <cell r="E15">
-            <v>0.93988000000000005</v>
-          </cell>
-          <cell r="G15">
-            <v>0.25</v>
-          </cell>
-          <cell r="H15">
-            <v>1.0500000000000001E-2</v>
-          </cell>
-          <cell r="I15">
-            <v>1</v>
-          </cell>
-          <cell r="J15">
-            <v>1</v>
-          </cell>
-          <cell r="K15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>0.1</v>
-          </cell>
-          <cell r="B16">
-            <v>0.20721000000000001</v>
-          </cell>
-          <cell r="C16">
-            <v>0.33333000000000002</v>
-          </cell>
-          <cell r="D16">
-            <v>0.30667</v>
-          </cell>
-          <cell r="E16">
-            <v>0.31944</v>
-          </cell>
-          <cell r="G16">
-            <v>0.1</v>
-          </cell>
-          <cell r="H16">
-            <v>0.11871</v>
-          </cell>
-          <cell r="I16">
-            <v>0.87243000000000004</v>
-          </cell>
-          <cell r="J16">
-            <v>0.78</v>
-          </cell>
-          <cell r="K16">
-            <v>0.75693999999999995</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0.05</v>
-          </cell>
-          <cell r="B17">
-            <v>0.33957999999999999</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-          <cell r="E17">
-            <v>0</v>
-          </cell>
-          <cell r="G17">
-            <v>0.05</v>
-          </cell>
-          <cell r="H17">
-            <v>0.2747</v>
-          </cell>
-          <cell r="I17">
-            <v>0.33333000000000002</v>
-          </cell>
-          <cell r="J17">
-            <v>7.3330000000000006E-2</v>
-          </cell>
-          <cell r="K17">
-            <v>0.12021999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548407</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215898</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FED5E19-CACD-A044-9D87-0C3B6961D7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>519543</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>187034</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8BA8A6-1C65-7445-AE25-73EA6825BD98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>819726</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>484908</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>92362</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89780DD4-53A6-7C41-B032-1A131B69E884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>94673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>550719</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC796E2-0AC1-8040-8B5D-3991DCE50938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12064,8 +16379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA590C-06CB-1849-8E8B-D35982C91359}">
   <dimension ref="B2:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="F38" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13720,7 +18035,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15379,7 +19694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F471FEC4-0586-234C-9FFF-934E2C1C51FA}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -17774,4 +22089,1392 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82111682-450E-5C43-AB0C-8467E773F492}">
+  <dimension ref="A2:M70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="16" thickBot="1"/>
+    <row r="3" spans="2:12" ht="16" thickBot="1">
+      <c r="B3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="H3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="2:12" ht="16" thickBot="1">
+      <c r="B4" s="17"/>
+      <c r="C4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49">
+        <v>0.10344827586200001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9.2592592592599998E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>9.7719869706799994E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.943248033524</v>
+      </c>
+      <c r="H5" s="50">
+        <v>1</v>
+      </c>
+      <c r="I5" s="49">
+        <v>0.135294117647</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.133720930233</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.13450292397700001</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1.5168888568900001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0.105590062112</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.113333333333</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.10932475884200001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.202105998993</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="40">
+        <v>7.9470198675499995E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>7.9470198675499995E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>7.9470198675499995E-2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.34145188331600002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="40">
+        <v>0.13709677419399999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.107594936709</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.12056737588700001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.7212839126600001E-2</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.16551724137900001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.13150684931500001</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.17885899543799999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="40">
+        <v>8.5889570552100003E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9.3959731543600003E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8.97435897436E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7.7829360961900003E-3</v>
+      </c>
+      <c r="H8" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="40">
+        <v>0.116788321168</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.105263157895</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.110726643599</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.9460916519200001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="16" thickBot="1">
+      <c r="B9" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="16" thickBot="1"/>
+    <row r="13" spans="2:12" ht="16" thickBot="1">
+      <c r="B13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="H13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="2:12" ht="16" thickBot="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="93">
+        <v>1</v>
+      </c>
+      <c r="C15" s="49">
+        <v>0.10344827586200001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>9.2592592592599998E-2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>9.7719869706799994E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.943248033524</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+      <c r="I15" s="49">
+        <v>0.135294117647</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.133720930233</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.13450292397700001</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1.5168888568900001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="40">
+        <v>7.6388888888899997E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>7.3333333333299999E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>7.4829931972799996E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.221429824829</v>
+      </c>
+      <c r="H16" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="40">
+        <v>0.109489051095</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.102739726027</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.106007067138</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.442583084106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="40">
+        <v>9.4240837696299998E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.12587412587399999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.107784431138</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5.82129955292E-2</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="40">
+        <v>8.64197530864E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.15671641790999999</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.11140583554400001</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.10040092468300001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="40">
+        <v>7.7464788732399995E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.149659863946</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.102088167053</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1.2503862381E-2</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="40">
+        <v>5.74712643678E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>6.8965517241400001E-2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>6.2695924764900005E-2</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2.46188640594E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" thickBot="1">
+      <c r="B19" s="106">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" thickBot="1"/>
+    <row r="32" spans="1:13" ht="16" thickBot="1">
+      <c r="A32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="90"/>
+      <c r="H32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="18"/>
+      <c r="M32" s="90"/>
+    </row>
+    <row r="33" spans="1:13" ht="16" thickBot="1">
+      <c r="A33" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16" thickBot="1">
+      <c r="A34" s="96">
+        <v>1</v>
+      </c>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98">
+        <v>0.10344827586200001</v>
+      </c>
+      <c r="D34" s="98">
+        <v>9.2592592592599998E-2</v>
+      </c>
+      <c r="E34" s="98">
+        <v>9.7719869706799994E-2</v>
+      </c>
+      <c r="F34" s="99">
+        <v>0.943248033524</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="105"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="99"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94">
+        <v>0.105590062112</v>
+      </c>
+      <c r="D35" s="94">
+        <v>0.113333333333</v>
+      </c>
+      <c r="E35" s="94">
+        <v>0.10932475884200001</v>
+      </c>
+      <c r="F35" s="95">
+        <v>0.202105998993</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" ht="16" thickBot="1">
+      <c r="A38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="100">
+        <f>(B35+B36+B37)/3</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="100">
+        <f>(C35+C36+C37)/3</f>
+        <v>3.5196687370666668E-2</v>
+      </c>
+      <c r="D38" s="100">
+        <f>(D35+D36+D37)/3</f>
+        <v>3.7777777777666666E-2</v>
+      </c>
+      <c r="E38" s="100">
+        <f>(E35+E36+E37)/3</f>
+        <v>3.6441586280666668E-2</v>
+      </c>
+      <c r="F38" s="100">
+        <f>(F35+F36+F37)/3</f>
+        <v>6.7368666330999999E-2</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="102">
+        <f>(I35+I36+I37)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <f>(J35+J36+J37)/3</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <f>(K35+K36+K37)/3</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <f>(L35+L36+L37)/3</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9">
+        <v>0.13709677419399999</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.107594936709</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.12056737588700001</v>
+      </c>
+      <c r="F39" s="8">
+        <v>4.7212839126600001E-2</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="I39" s="49"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" ht="16" thickBot="1">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2">
+        <f>(B39+B40+B41)/3</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <f>(C39+C40+C41)/3</f>
+        <v>4.5698924731333329E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <f>(D39+D40+D41)/3</f>
+        <v>3.5864978903E-2</v>
+      </c>
+      <c r="E42" s="2">
+        <f>(E39+E40+E41)/3</f>
+        <v>4.0189125295666671E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <f>(F39+F40+F41)/3</f>
+        <v>1.5737613042200001E-2</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="102">
+        <f>(I39+I40+I41)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <f>(J39+J40+J41)/3</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <f>(K39+K40+K41)/3</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <f>(L39+L40+L41)/3</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9">
+        <v>8.5889570552100003E-2</v>
+      </c>
+      <c r="D43" s="9">
+        <v>9.3959731543600003E-2</v>
+      </c>
+      <c r="E43" s="9">
+        <v>8.97435897436E-2</v>
+      </c>
+      <c r="F43" s="8">
+        <v>7.7829360961900003E-3</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I43" s="49"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" ht="16" thickBot="1">
+      <c r="A46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <f>(B43+B44+B45)/3</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <f>(C43+C44+C45)/3</f>
+        <v>2.8629856850700002E-2</v>
+      </c>
+      <c r="D46" s="2">
+        <f>(D43+D44+D45)/3</f>
+        <v>3.1319910514533332E-2</v>
+      </c>
+      <c r="E46" s="2">
+        <f>(E43+E44+E45)/3</f>
+        <v>2.9914529914533333E-2</v>
+      </c>
+      <c r="F46" s="2">
+        <f>(F43+F44+F45)/3</f>
+        <v>2.5943120320633334E-3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="102">
+        <f>(I43+I44+I45)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <f>(J43+J44+J45)/3</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <f>(K43+K44+K45)/3</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <f>(L43+L44+L45)/3</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="95"/>
+      <c r="H47" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="I47" s="103"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="95"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="7"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" ht="16" thickBot="1">
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2">
+        <f>(B47+B48+B49)/3</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <f>(C47+C48+C49)/3</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <f>(D47+D48+D49)/3</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <f>(E47+E48+E49)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <f>(F47+F48+F49)/3</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="102">
+        <f>(I47+I48+I49)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <f>(J47+J48+J49)/3</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <f>(K47+K48+K49)/3</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <f>(L47+L48+L49)/3</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" ht="16" thickBot="1"/>
+    <row r="52" spans="1:13" ht="16" thickBot="1">
+      <c r="A52" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="90"/>
+      <c r="H52" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="18"/>
+    </row>
+    <row r="53" spans="1:13" ht="16" thickBot="1">
+      <c r="A53" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="16" thickBot="1">
+      <c r="A54" s="96">
+        <v>1</v>
+      </c>
+      <c r="B54" s="97"/>
+      <c r="C54" s="98">
+        <v>0.10344827586200001</v>
+      </c>
+      <c r="D54" s="98">
+        <v>9.2592592592599998E-2</v>
+      </c>
+      <c r="E54" s="98">
+        <v>9.7719869706799994E-2</v>
+      </c>
+      <c r="F54" s="99">
+        <v>0.943248033524</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="B55" s="94"/>
+      <c r="C55" s="94">
+        <v>7.6388888888899997E-2</v>
+      </c>
+      <c r="D55" s="94">
+        <v>7.3333333333299999E-2</v>
+      </c>
+      <c r="E55" s="94">
+        <v>7.4829931972799996E-2</v>
+      </c>
+      <c r="F55" s="95">
+        <v>0.221429824829</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="7"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="7"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" ht="16" thickBot="1">
+      <c r="A58" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="100">
+        <f>(B55+B56+B57)/3</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="100">
+        <f>(C55+C56+C57)/3</f>
+        <v>2.5462962962966667E-2</v>
+      </c>
+      <c r="D58" s="100">
+        <f>(D55+D56+D57)/3</f>
+        <v>2.4444444444433333E-2</v>
+      </c>
+      <c r="E58" s="100">
+        <f>(E55+E56+E57)/3</f>
+        <v>2.4943310657599999E-2</v>
+      </c>
+      <c r="F58" s="101"/>
+      <c r="H58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <f>(I55+I56+I57)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <f>(J55+J56+J57)/3</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <f>(K55+K56+K57)/3</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <f>(L55+L56+L57)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9">
+        <v>9.4240837696299998E-2</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.12587412587399999</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0.107784431138</v>
+      </c>
+      <c r="F59" s="8">
+        <v>5.82129955292E-2</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="7"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="5"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" ht="16" thickBot="1">
+      <c r="A62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2">
+        <f>(B59+B60+B61)/3</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <f>(C59+C60+C61)/3</f>
+        <v>3.1413612565433333E-2</v>
+      </c>
+      <c r="D62" s="2">
+        <f>(D59+D60+D61)/3</f>
+        <v>4.1958041957999993E-2</v>
+      </c>
+      <c r="E62" s="2">
+        <f>(E59+E60+E61)/3</f>
+        <v>3.5928143712666664E-2</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="H62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <f>(I59+I60+I61)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <f>(J59+J60+J61)/3</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <f>(K59+K60+K61)/3</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <f>(L59+L60+L61)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9">
+        <v>7.7464788732399995E-2</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.149659863946</v>
+      </c>
+      <c r="E63" s="9">
+        <v>0.102088167053</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1.2503862381E-2</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="8"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="7"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="5"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="7"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" ht="16" thickBot="1">
+      <c r="A66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2">
+        <f>(B63+B64+B65)/3</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <f>(C63+C64+C65)/3</f>
+        <v>2.582159624413333E-2</v>
+      </c>
+      <c r="D66" s="2">
+        <f>(D63+D64+D65)/3</f>
+        <v>4.9886621315333335E-2</v>
+      </c>
+      <c r="E66" s="2">
+        <f>(E63+E64+E65)/3</f>
+        <v>3.4029389017666667E-2</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="H66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <f>(I63+I64+I65)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <f>(J63+J64+J65)/3</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <f>(K63+K64+K65)/3</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <f>(L63+L64+L65)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="95"/>
+      <c r="H67" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="7"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="5"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="7"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" ht="16" thickBot="1">
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
+        <f>(B67+B68+B69)/3</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <f>(C67+C68+C69)/3</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <f>(D67+D68+D69)/3</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <f>(E67+E68+E69)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="H70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <f>(I67+I68+I69)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <f>(J67+J68+J69)/3</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <f>(K67+K68+K69)/3</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <f>(L67+L68+L69)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanielsprecher/Documents/REU_GNN/GraphSAGE_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C95670-CEE2-6344-853D-FE7E61B599E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D5165E-9EB7-3442-9E1B-D6AD153A72B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="27640" windowHeight="15580" activeTab="3" xr2:uid="{126C32C7-39E5-4748-8F2C-16AAB677E73B}"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="27640" windowHeight="15580" xr2:uid="{126C32C7-39E5-4748-8F2C-16AAB677E73B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ind_10n_4a" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="25">
   <si>
     <t>avg</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Avg Test_T</t>
+  </si>
+  <si>
+    <t>Avg Iter_T</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -943,12 +949,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1077,6 +1109,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15615,16 +15652,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>548407</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>106217</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>215898</xdr:colOff>
+      <xdr:colOff>793172</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:rowOff>57728</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15653,16 +15690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>519543</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>265544</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>71582</xdr:rowOff>
+      <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>187034</xdr:colOff>
+      <xdr:colOff>764307</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:rowOff>80818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15691,16 +15728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>819726</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>13853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>484908</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>92362</xdr:rowOff>
+      <xdr:rowOff>80816</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15730,15 +15767,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>51955</xdr:colOff>
+      <xdr:colOff>513774</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>94673</xdr:rowOff>
+      <xdr:rowOff>48490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>550719</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>181265</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>80818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16379,8 +16416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA590C-06CB-1849-8E8B-D35982C91359}">
   <dimension ref="B2:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16822,6 +16859,45 @@
         <v>0.62485000000000002</v>
       </c>
     </row>
+    <row r="21" spans="2:12" ht="16" thickBot="1"/>
+    <row r="22" spans="2:12" ht="16" thickBot="1">
+      <c r="B22" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="113"/>
+      <c r="H22" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="116"/>
+    </row>
+    <row r="23" spans="2:12" ht="16" thickBot="1">
+      <c r="B23" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="16" thickBot="1">
+      <c r="B24" s="114">
+        <v>2.1475900000000001</v>
+      </c>
+      <c r="C24" s="115">
+        <v>0.16064999999999999</v>
+      </c>
+      <c r="H24" s="114">
+        <v>6.0711599999999999</v>
+      </c>
+      <c r="I24" s="115">
+        <v>0.43429000000000001</v>
+      </c>
+    </row>
     <row r="31" spans="2:12" ht="16" thickBot="1"/>
     <row r="32" spans="2:12" ht="16" thickBot="1">
       <c r="B32" s="21" t="s">
@@ -18034,7 +18110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99767B8-D82A-3D47-85CA-0BB753848A94}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="L2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -22095,8 +22171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82111682-450E-5C43-AB0C-8467E773F492}">
   <dimension ref="A2:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
